--- a/transition_finance_projects_dataset.xlsx
+++ b/transition_finance_projects_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-IE\@2025_Spring\MIM_PA\SESSIONS 5 &amp; 6 - Red Brand Canners\AHP_AUSTRALIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A289A8C-E4F1-47D1-BC00-2CE4A6D6BD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D59197-7570-4D9A-B6AA-95CD54A051A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
     <col min="10" max="10" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
